--- a/opinions/parsed_wiki_data/2005.xlsx
+++ b/opinions/parsed_wiki_data/2005.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M85"/>
+  <dimension ref="A1:K85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,16 +485,6 @@
           <t>alito</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>alito not yet appointed</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>o'connor retired</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -545,13 +535,11 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -602,13 +590,11 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -659,13 +645,11 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -716,13 +700,11 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -773,13 +755,11 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -830,13 +810,11 @@
           <t>majority</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -887,13 +865,11 @@
           <t>dissent2</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -944,13 +920,11 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1001,13 +975,11 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1058,13 +1030,11 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1115,13 +1085,11 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1172,13 +1140,11 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1229,13 +1195,11 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1286,13 +1250,11 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1343,13 +1305,11 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1400,13 +1360,11 @@
           <t>majority</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1457,13 +1415,11 @@
           <t>dissent2</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1514,13 +1470,11 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1571,13 +1525,11 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1628,13 +1580,11 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1685,13 +1635,11 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1742,13 +1690,11 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1799,13 +1745,11 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1856,13 +1800,11 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1913,13 +1855,11 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1935,7 +1875,11 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
           <t>joinmajority</t>
@@ -1967,12 +1911,6 @@
         </is>
       </c>
       <c r="K27" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
         <is>
           <t>didnotparticipate</t>
         </is>
@@ -1992,7 +1930,11 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr">
         <is>
           <t>majority</t>
@@ -2024,12 +1966,6 @@
         </is>
       </c>
       <c r="K28" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
         <is>
           <t>didnotparticipate</t>
         </is>
@@ -2049,7 +1985,11 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr">
         <is>
           <t>joinmajority</t>
@@ -2083,12 +2023,6 @@
       <c r="K29" t="inlineStr">
         <is>
           <t>joinmajority</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2040,11 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr">
         <is>
           <t>joinmajority</t>
@@ -2140,12 +2078,6 @@
       <c r="K30" t="inlineStr">
         <is>
           <t>joinmajority</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
         </is>
       </c>
     </row>
@@ -2163,7 +2095,11 @@
           <t>dissent</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr">
         <is>
           <t>joinmajority</t>
@@ -2197,12 +2133,6 @@
       <c r="K31" t="inlineStr">
         <is>
           <t>joinmajority</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
         </is>
       </c>
     </row>
@@ -2220,7 +2150,11 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr">
         <is>
           <t>majority</t>
@@ -2252,12 +2186,6 @@
         </is>
       </c>
       <c r="K32" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
         <is>
           <t>didnotparticipate</t>
         </is>
@@ -2277,7 +2205,11 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
           <t>joinmajority</t>
@@ -2309,12 +2241,6 @@
         </is>
       </c>
       <c r="K33" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
         <is>
           <t>didnotparticipate</t>
         </is>
@@ -2334,7 +2260,11 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr">
         <is>
           <t>joinmajority</t>
@@ -2366,12 +2296,6 @@
         </is>
       </c>
       <c r="K34" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
         <is>
           <t>didnotparticipate</t>
         </is>
@@ -2391,7 +2315,11 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr">
         <is>
           <t>concurrence</t>
@@ -2423,12 +2351,6 @@
         </is>
       </c>
       <c r="K35" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
         <is>
           <t>didnotparticipate</t>
         </is>
@@ -2448,7 +2370,11 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
       <c r="E36" t="inlineStr">
         <is>
           <t>joinmajority</t>
@@ -2480,12 +2406,6 @@
         </is>
       </c>
       <c r="K36" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
         <is>
           <t>didnotparticipate</t>
         </is>
@@ -2505,7 +2425,11 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr">
         <is>
           <t>joinmajority</t>
@@ -2537,12 +2461,6 @@
         </is>
       </c>
       <c r="K37" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
         <is>
           <t>didnotparticipate</t>
         </is>
@@ -2562,7 +2480,11 @@
           <t>majority</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
       <c r="E38" t="inlineStr">
         <is>
           <t>joinmajority</t>
@@ -2594,12 +2516,6 @@
         </is>
       </c>
       <c r="K38" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr">
         <is>
           <t>didnotparticipate</t>
         </is>
@@ -2619,7 +2535,11 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
       <c r="E39" t="inlineStr">
         <is>
           <t>joinmajority</t>
@@ -2651,12 +2571,6 @@
         </is>
       </c>
       <c r="K39" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr">
         <is>
           <t>didnotparticipate</t>
         </is>
@@ -2676,7 +2590,11 @@
           <t>majority</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
       <c r="E40" t="inlineStr">
         <is>
           <t>joinmajority</t>
@@ -2708,12 +2626,6 @@
         </is>
       </c>
       <c r="K40" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr">
         <is>
           <t>didnotparticipate</t>
         </is>
@@ -2733,7 +2645,11 @@
           <t>partjoinmajority</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
       <c r="E41" t="inlineStr">
         <is>
           <t>majority</t>
@@ -2765,12 +2681,6 @@
         </is>
       </c>
       <c r="K41" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr">
         <is>
           <t>didnotparticipate</t>
         </is>
@@ -2790,7 +2700,11 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
       <c r="E42" t="inlineStr">
         <is>
           <t>joindissent1</t>
@@ -2822,12 +2736,6 @@
         </is>
       </c>
       <c r="K42" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr">
         <is>
           <t>didnotparticipate</t>
         </is>
@@ -2847,7 +2755,11 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
       <c r="E43" t="inlineStr">
         <is>
           <t>joinmajority</t>
@@ -2881,12 +2793,6 @@
       <c r="K43" t="inlineStr">
         <is>
           <t>joinmajority</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
         </is>
       </c>
     </row>
@@ -2904,7 +2810,11 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
       <c r="E44" t="inlineStr">
         <is>
           <t>joinmajority</t>
@@ -2938,12 +2848,6 @@
       <c r="K44" t="inlineStr">
         <is>
           <t>joinmajority</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
         </is>
       </c>
     </row>
@@ -2961,7 +2865,11 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
       <c r="E45" t="inlineStr">
         <is>
           <t>joinmajority</t>
@@ -2995,12 +2903,6 @@
       <c r="K45" t="inlineStr">
         <is>
           <t>joinmajority</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
         </is>
       </c>
     </row>
@@ -3018,7 +2920,11 @@
           <t>dissent1</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
       <c r="E46" t="inlineStr">
         <is>
           <t>dissent2</t>
@@ -3052,12 +2958,6 @@
       <c r="K46" t="inlineStr">
         <is>
           <t>joinmajority</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
         </is>
       </c>
     </row>
@@ -3075,7 +2975,11 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
       <c r="E47" t="inlineStr">
         <is>
           <t>joindissent</t>
@@ -3107,12 +3011,6 @@
         </is>
       </c>
       <c r="K47" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
         <is>
           <t>didnotparticipate</t>
         </is>
@@ -3132,7 +3030,11 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
       <c r="E48" t="inlineStr">
         <is>
           <t>joinmajority</t>
@@ -3164,12 +3066,6 @@
         </is>
       </c>
       <c r="K48" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr">
         <is>
           <t>didnotparticipate</t>
         </is>
@@ -3189,7 +3085,11 @@
           <t>majority</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
       <c r="E49" t="inlineStr">
         <is>
           <t>joinmajority</t>
@@ -3223,12 +3123,6 @@
       <c r="K49" t="inlineStr">
         <is>
           <t>joinmajority</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
         </is>
       </c>
     </row>
@@ -3246,7 +3140,11 @@
           <t>concurrence</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
       <c r="E50" t="inlineStr">
         <is>
           <t>joinmajority</t>
@@ -3280,12 +3178,6 @@
       <c r="K50" t="inlineStr">
         <is>
           <t>joinmajority</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
         </is>
       </c>
     </row>
@@ -3303,7 +3195,11 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
       <c r="E51" t="inlineStr">
         <is>
           <t>joinmajority</t>
@@ -3337,12 +3233,6 @@
       <c r="K51" t="inlineStr">
         <is>
           <t>majority</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
         </is>
       </c>
     </row>
@@ -3360,7 +3250,11 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
       <c r="E52" t="inlineStr">
         <is>
           <t>joinmajority</t>
@@ -3394,12 +3288,6 @@
       <c r="K52" t="inlineStr">
         <is>
           <t>joinmajority</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
         </is>
       </c>
     </row>
@@ -3417,7 +3305,11 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
       <c r="E53" t="inlineStr">
         <is>
           <t>joinmajority</t>
@@ -3451,12 +3343,6 @@
       <c r="K53" t="inlineStr">
         <is>
           <t>joinmajority</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3360,11 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
       <c r="E54" t="inlineStr">
         <is>
           <t>partjoinmajority</t>
@@ -3508,12 +3398,6 @@
       <c r="K54" t="inlineStr">
         <is>
           <t>joinmajority</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
         </is>
       </c>
     </row>
@@ -3531,7 +3415,11 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
       <c r="E55" t="inlineStr">
         <is>
           <t>joinmajority</t>
@@ -3565,12 +3453,6 @@
       <c r="K55" t="inlineStr">
         <is>
           <t>joinmajority</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
         </is>
       </c>
     </row>
@@ -3588,7 +3470,11 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
       <c r="E56" t="inlineStr">
         <is>
           <t>joinmajority</t>
@@ -3622,12 +3508,6 @@
       <c r="K56" t="inlineStr">
         <is>
           <t>joinmajority</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
         </is>
       </c>
     </row>
@@ -3645,7 +3525,11 @@
           <t>dissent1</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
       <c r="E57" t="inlineStr">
         <is>
           <t>joinmajority</t>
@@ -3679,12 +3563,6 @@
       <c r="K57" t="inlineStr">
         <is>
           <t>joinmajority</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
         </is>
       </c>
     </row>
@@ -3702,7 +3580,11 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
       <c r="E58" t="inlineStr">
         <is>
           <t>joinmajority</t>
@@ -3736,12 +3618,6 @@
       <c r="K58" t="inlineStr">
         <is>
           <t>joinmajority</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
         </is>
       </c>
     </row>
@@ -3759,7 +3635,11 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
       <c r="E59" t="inlineStr">
         <is>
           <t>partjoinmajority</t>
@@ -3793,12 +3673,6 @@
       <c r="K59" t="inlineStr">
         <is>
           <t>majority</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
         </is>
       </c>
     </row>
@@ -3816,7 +3690,11 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
       <c r="E60" t="inlineStr">
         <is>
           <t>joinmajority</t>
@@ -3848,12 +3726,6 @@
         </is>
       </c>
       <c r="K60" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr">
         <is>
           <t>didnotparticipate</t>
         </is>
@@ -3873,7 +3745,11 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
       <c r="E61" t="inlineStr">
         <is>
           <t>joinmajority</t>
@@ -3907,12 +3783,6 @@
       <c r="K61" t="inlineStr">
         <is>
           <t>joinmajority</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
         </is>
       </c>
     </row>
@@ -3930,7 +3800,11 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
       <c r="E62" t="inlineStr">
         <is>
           <t>joinconcurrencedissent</t>
@@ -3962,12 +3836,6 @@
         </is>
       </c>
       <c r="K62" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr">
         <is>
           <t>didnotparticipate</t>
         </is>
@@ -3987,7 +3855,11 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr"/>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
       <c r="E63" t="inlineStr">
         <is>
           <t>joinmajority</t>
@@ -4021,12 +3893,6 @@
       <c r="K63" t="inlineStr">
         <is>
           <t>joinmajority</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
         </is>
       </c>
     </row>
@@ -4044,7 +3910,11 @@
           <t>joindissent</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr"/>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
       <c r="E64" t="inlineStr">
         <is>
           <t>plurality</t>
@@ -4078,12 +3948,6 @@
       <c r="K64" t="inlineStr">
         <is>
           <t>joinmajority</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
         </is>
       </c>
     </row>
@@ -4101,7 +3965,11 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
       <c r="E65" t="inlineStr">
         <is>
           <t>partjoinmajority</t>
@@ -4135,12 +4003,6 @@
       <c r="K65" t="inlineStr">
         <is>
           <t>joinmajority</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
         </is>
       </c>
     </row>
@@ -4158,7 +4020,11 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr"/>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
       <c r="E66" t="inlineStr">
         <is>
           <t>joinmajority</t>
@@ -4192,12 +4058,6 @@
       <c r="K66" t="inlineStr">
         <is>
           <t>joindissent</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
         </is>
       </c>
     </row>
@@ -4215,7 +4075,11 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr"/>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
       <c r="E67" t="inlineStr">
         <is>
           <t>joinmajority</t>
@@ -4249,12 +4113,6 @@
       <c r="K67" t="inlineStr">
         <is>
           <t>joindissent</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
         </is>
       </c>
     </row>
@@ -4272,7 +4130,11 @@
           <t>dissent1</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr"/>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
       <c r="E68" t="inlineStr">
         <is>
           <t>plurality</t>
@@ -4306,12 +4168,6 @@
       <c r="K68" t="inlineStr">
         <is>
           <t>joinmajority</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
         </is>
       </c>
     </row>
@@ -4329,7 +4185,11 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr"/>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
       <c r="E69" t="inlineStr">
         <is>
           <t>majority</t>
@@ -4363,12 +4223,6 @@
       <c r="K69" t="inlineStr">
         <is>
           <t>joinmajority</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
         </is>
       </c>
     </row>
@@ -4386,7 +4240,11 @@
           <t>dissent</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr"/>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
       <c r="E70" t="inlineStr">
         <is>
           <t>joinmajority</t>
@@ -4420,12 +4278,6 @@
       <c r="K70" t="inlineStr">
         <is>
           <t>joinmajority</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
         </is>
       </c>
     </row>
@@ -4443,7 +4295,11 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr"/>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
       <c r="E71" t="inlineStr">
         <is>
           <t>dissent1</t>
@@ -4477,12 +4333,6 @@
       <c r="K71" t="inlineStr">
         <is>
           <t>joinmajority</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
         </is>
       </c>
     </row>
@@ -4500,7 +4350,11 @@
           <t>majority</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr"/>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
       <c r="E72" t="inlineStr">
         <is>
           <t>joinmajority</t>
@@ -4534,12 +4388,6 @@
       <c r="K72" t="inlineStr">
         <is>
           <t>joinmajority</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
         </is>
       </c>
     </row>
@@ -4557,7 +4405,11 @@
           <t>dissent</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr"/>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
       <c r="E73" t="inlineStr">
         <is>
           <t>joinmajority</t>
@@ -4591,12 +4443,6 @@
       <c r="K73" t="inlineStr">
         <is>
           <t>joinmajority</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4460,11 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr"/>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
       <c r="E74" t="inlineStr">
         <is>
           <t>joinmajority</t>
@@ -4648,12 +4498,6 @@
       <c r="K74" t="inlineStr">
         <is>
           <t>concurrence</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
         </is>
       </c>
     </row>
@@ -4671,7 +4515,11 @@
           <t>dissent</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr"/>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
       <c r="E75" t="inlineStr">
         <is>
           <t>joinmajority</t>
@@ -4705,12 +4553,6 @@
       <c r="K75" t="inlineStr">
         <is>
           <t>majority</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
         </is>
       </c>
     </row>
@@ -4728,7 +4570,11 @@
           <t>joindissent</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr"/>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
       <c r="E76" t="inlineStr">
         <is>
           <t>joinmajority</t>
@@ -4762,12 +4608,6 @@
       <c r="K76" t="inlineStr">
         <is>
           <t>joinmajority</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
         </is>
       </c>
     </row>
@@ -4785,7 +4625,11 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr"/>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
       <c r="E77" t="inlineStr">
         <is>
           <t>majority</t>
@@ -4819,12 +4663,6 @@
       <c r="K77" t="inlineStr">
         <is>
           <t>dissent</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
         </is>
       </c>
     </row>
@@ -4842,7 +4680,11 @@
           <t>dissent1</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr"/>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
       <c r="E78" t="inlineStr">
         <is>
           <t>joinmajority</t>
@@ -4876,12 +4718,6 @@
       <c r="K78" t="inlineStr">
         <is>
           <t>joinmajority</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
         </is>
       </c>
     </row>
@@ -4899,7 +4735,11 @@
           <t>dissent1</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr"/>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
       <c r="E79" t="inlineStr">
         <is>
           <t>joinmajority</t>
@@ -4933,12 +4773,6 @@
       <c r="K79" t="inlineStr">
         <is>
           <t>joinmajority</t>
-        </is>
-      </c>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
         </is>
       </c>
     </row>
@@ -4956,7 +4790,11 @@
           <t>dissent1</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr"/>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
       <c r="E80" t="inlineStr">
         <is>
           <t>joinconcurrence2</t>
@@ -4990,12 +4828,6 @@
       <c r="K80" t="inlineStr">
         <is>
           <t>partjoinmajority</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
         </is>
       </c>
     </row>
@@ -5013,7 +4845,11 @@
           <t>joindissent2</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr"/>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
       <c r="E81" t="inlineStr">
         <is>
           <t>joinmajority</t>
@@ -5047,12 +4883,6 @@
       <c r="K81" t="inlineStr">
         <is>
           <t>majority</t>
-        </is>
-      </c>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
         </is>
       </c>
     </row>
@@ -5070,7 +4900,11 @@
           <t>joindissent</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr"/>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
       <c r="E82" t="inlineStr">
         <is>
           <t>joinmajority</t>
@@ -5104,12 +4938,6 @@
       <c r="K82" t="inlineStr">
         <is>
           <t>joinmajority</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
         </is>
       </c>
     </row>
@@ -5127,7 +4955,11 @@
           <t>partjoinmajority</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr"/>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
       <c r="E83" t="inlineStr">
         <is>
           <t>concurrencedissent3</t>
@@ -5161,12 +4993,6 @@
       <c r="K83" t="inlineStr">
         <is>
           <t>partjoinmajority</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
         </is>
       </c>
     </row>
@@ -5184,7 +5010,11 @@
           <t>dissent1</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr"/>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
       <c r="E84" t="inlineStr">
         <is>
           <t>joinconcurrence</t>
@@ -5216,12 +5046,6 @@
         </is>
       </c>
       <c r="K84" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr">
         <is>
           <t>didnotparticipate</t>
         </is>
@@ -5241,7 +5065,11 @@
           <t>plurality</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr"/>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>didnotparticipate</t>
+        </is>
+      </c>
       <c r="E85" t="inlineStr">
         <is>
           <t>dissent1</t>
@@ -5275,12 +5103,6 @@
       <c r="K85" t="inlineStr">
         <is>
           <t>joindissent1</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>didnotparticipate</t>
         </is>
       </c>
     </row>

--- a/opinions/parsed_wiki_data/2005.xlsx
+++ b/opinions/parsed_wiki_data/2005.xlsx
@@ -492,47 +492,47 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -547,47 +547,47 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -602,47 +602,47 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -657,47 +657,47 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -722,37 +722,37 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -767,42 +767,42 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -827,7 +827,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -837,32 +837,32 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>dissent2</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -877,47 +877,47 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -932,47 +932,47 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -987,37 +987,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1027,7 +1027,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1042,32 +1042,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1102,42 +1102,42 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1152,12 +1152,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1167,32 +1167,32 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1207,17 +1207,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1227,27 +1227,27 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1272,27 +1272,27 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1317,7 +1317,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1327,32 +1327,32 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1372,17 +1372,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1392,27 +1392,27 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>joindissent2</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>dissent2</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1427,22 +1427,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1452,22 +1452,22 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1482,32 +1482,32 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1537,12 +1537,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1552,32 +1552,32 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1592,22 +1592,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1617,22 +1617,22 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1647,27 +1647,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1677,17 +1677,17 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1702,7 +1702,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1712,22 +1712,22 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1737,12 +1737,12 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1757,7 +1757,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1767,22 +1767,22 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1792,12 +1792,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1812,47 +1812,47 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -1872,7 +1872,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1882,32 +1882,32 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -1922,12 +1922,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1942,12 +1942,12 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1957,12 +1957,12 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -1977,12 +1977,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1992,37 +1992,37 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2032,12 +2032,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2047,37 +2047,37 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2087,7 +2087,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2102,22 +2102,22 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>joinconcurrence</t>
+          <t>concurrence joinconcurrence</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2127,12 +2127,12 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2142,12 +2142,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2162,27 +2162,27 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2197,12 +2197,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2212,7 +2212,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2232,12 +2232,12 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2252,12 +2252,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2267,22 +2267,22 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2292,7 +2292,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2307,12 +2307,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2327,22 +2327,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>joinconcurrence</t>
+          <t>concurrence joinconcurrence</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2362,12 +2362,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2377,17 +2377,17 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2397,12 +2397,12 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2417,12 +2417,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2432,27 +2432,27 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2472,7 +2472,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2487,32 +2487,32 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2532,7 +2532,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2542,32 +2542,32 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2582,7 +2582,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2597,32 +2597,32 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -2637,12 +2637,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2657,27 +2657,27 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -2692,12 +2692,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2707,12 +2707,12 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2722,17 +2722,17 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>dissent3</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -2747,12 +2747,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2762,37 +2762,37 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2802,12 +2802,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2817,37 +2817,37 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2857,12 +2857,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2872,17 +2872,17 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2892,17 +2892,17 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2912,12 +2912,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2927,22 +2927,22 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>dissent2</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>joindissent2</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2952,12 +2952,12 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2972,7 +2972,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2982,17 +2982,17 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -3002,12 +3002,12 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -3037,12 +3037,12 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -3052,7 +3052,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3062,7 +3062,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3077,7 +3077,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -3092,37 +3092,37 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -3147,22 +3147,22 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3172,12 +3172,12 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3187,12 +3187,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -3202,32 +3202,32 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3247,7 +3247,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -3257,22 +3257,22 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3282,12 +3282,12 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3302,7 +3302,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -3312,37 +3312,37 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3352,12 +3352,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -3367,12 +3367,12 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority joinmajority</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -3382,22 +3382,22 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3407,12 +3407,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -3422,17 +3422,17 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3442,17 +3442,17 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3467,7 +3467,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3477,37 +3477,37 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3517,12 +3517,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3532,7 +3532,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3542,27 +3542,27 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>dissent2</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>joindissent2</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>dissent3</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3572,12 +3572,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3587,7 +3587,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3597,27 +3597,27 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence dissent concurrencedissent joinmajority</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>concurrencedissent2</t>
+          <t>concurrence dissent concurrencedissent</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3627,12 +3627,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3642,32 +3642,32 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -3682,12 +3682,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3697,32 +3697,32 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -3737,12 +3737,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -3752,37 +3752,37 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3792,12 +3792,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>concurrencedissent</t>
+          <t>concurrence dissent concurrencedissent</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -3807,7 +3807,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>joinconcurrencedissent</t>
+          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3817,22 +3817,22 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>joinconcurrencedissent</t>
+          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -3847,12 +3847,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3862,7 +3862,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3872,27 +3872,27 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3902,12 +3902,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -3922,22 +3922,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3947,7 +3947,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3957,12 +3957,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -3972,12 +3972,12 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -3987,22 +3987,22 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -4012,12 +4012,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -4027,7 +4027,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -4037,12 +4037,12 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -4052,12 +4052,12 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
     </row>
@@ -4067,12 +4067,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -4082,22 +4082,22 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -4112,7 +4112,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
     </row>
@@ -4122,12 +4122,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -4142,32 +4142,32 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>concurrence2</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -4177,12 +4177,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -4197,32 +4197,32 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>concurrencedissent</t>
+          <t>concurrence dissent concurrencedissent</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -4232,7 +4232,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -4247,17 +4247,17 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -4267,17 +4267,17 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -4287,12 +4287,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -4302,37 +4302,37 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>dissent2</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -4342,7 +4342,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -4357,27 +4357,27 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -4387,7 +4387,7 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
     </row>
@@ -4397,7 +4397,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -4412,12 +4412,12 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -4427,22 +4427,22 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -4452,12 +4452,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -4467,27 +4467,27 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -4507,7 +4507,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -4522,27 +4522,27 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -4567,7 +4567,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -4577,27 +4577,27 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4607,7 +4607,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -4617,12 +4617,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -4637,27 +4637,27 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -4672,12 +4672,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -4687,17 +4687,17 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>dissent2</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4707,17 +4707,17 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>joindissent2</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>joindissent2</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -4727,12 +4727,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -4742,17 +4742,17 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4762,17 +4762,17 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>dissent2</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -4782,12 +4782,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent partjoindissent joindissent</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -4797,27 +4797,27 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>joinconcurrence2</t>
+          <t>concurrence joinconcurrence</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>concurrence1</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>dissent2</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>concurrence2</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>joindissent2</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4827,7 +4827,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority</t>
         </is>
       </c>
     </row>
@@ -4837,12 +4837,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>joindissent2</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -4852,22 +4852,22 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -4877,7 +4877,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>dissent2</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -4897,7 +4897,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -4907,27 +4907,27 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>concurrence</t>
+          <t>concurrence dissent partjoindissent joindissent</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4937,7 +4937,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -4947,12 +4947,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence partjoinconcurrence dissent concurrencedissent joinconcurrencedissent joinmajority joinconcurrence partjoinconcurrencedissent</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence dissent concurrencedissent joinmajority</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -4962,7 +4962,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>concurrencedissent3</t>
+          <t>concurrence dissent concurrencedissent</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4972,27 +4972,27 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence dissent concurrencedissent joinmajority</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>joinconcurrencedissent3</t>
+          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence dissent concurrencedissent joinconcurrencedissent joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence partjoinconcurrence dissent concurrencedissent joinconcurrencedissent joinmajority joinconcurrence partjoinconcurrencedissent</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence partjoinconcurrence dissent concurrencedissent joinconcurrencedissent joinmajority joinconcurrence partjoinconcurrencedissent</t>
         </is>
       </c>
     </row>
@@ -5002,12 +5002,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -5017,17 +5017,17 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>joinconcurrence</t>
+          <t>concurrence joinconcurrence</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -5037,7 +5037,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -5072,37 +5072,37 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent partjoindissent joindissent</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence partjoinconcurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent partjoindissent joindissent</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence partjoinconcurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence partjoinconcurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent partjoindissent joindissent</t>
         </is>
       </c>
     </row>

--- a/opinions/parsed_wiki_data/2005.xlsx
+++ b/opinions/parsed_wiki_data/2005.xlsx
@@ -492,47 +492,47 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -547,47 +547,47 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -602,47 +602,47 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -657,47 +657,47 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -722,37 +722,37 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -767,42 +767,42 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -827,7 +827,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -837,22 +837,22 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -877,47 +877,47 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -932,47 +932,47 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -987,37 +987,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1027,7 +1027,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1042,22 +1042,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1067,7 +1067,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1102,42 +1102,42 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1152,12 +1152,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1167,32 +1167,32 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1207,17 +1207,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1227,27 +1227,27 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1272,22 +1272,22 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1317,7 +1317,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1327,32 +1327,32 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1372,7 +1372,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1382,7 +1382,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1432,12 +1432,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1462,12 +1462,12 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1482,32 +1482,32 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1537,12 +1537,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1552,32 +1552,32 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1592,22 +1592,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1617,22 +1617,22 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1647,27 +1647,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1677,17 +1677,17 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1712,7 +1712,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1727,7 +1727,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1737,12 +1737,12 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1757,7 +1757,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1767,12 +1767,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1782,7 +1782,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1792,12 +1792,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1812,47 +1812,47 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -1872,7 +1872,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1882,32 +1882,32 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -1922,12 +1922,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1942,12 +1942,12 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1957,12 +1957,12 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -1977,12 +1977,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1992,37 +1992,37 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2032,12 +2032,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2047,37 +2047,37 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2087,7 +2087,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2102,12 +2102,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2117,7 +2117,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2127,12 +2127,12 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2142,12 +2142,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2162,27 +2162,27 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2197,12 +2197,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2212,7 +2212,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2232,12 +2232,12 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2252,12 +2252,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2267,22 +2267,22 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2292,7 +2292,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2307,12 +2307,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2327,12 +2327,12 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2342,7 +2342,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2362,12 +2362,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2377,17 +2377,17 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2397,12 +2397,12 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2417,12 +2417,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2432,27 +2432,27 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2472,7 +2472,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2487,32 +2487,32 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2532,7 +2532,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2542,32 +2542,32 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2582,7 +2582,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2597,32 +2597,32 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -2637,12 +2637,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2657,27 +2657,27 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -2697,7 +2697,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2712,7 +2712,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2727,12 +2727,12 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -2747,12 +2747,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2762,37 +2762,37 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2802,12 +2802,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2817,37 +2817,37 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2857,12 +2857,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2872,17 +2872,17 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2892,17 +2892,17 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2912,7 +2912,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2932,12 +2932,12 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2957,7 +2957,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2972,7 +2972,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2992,7 +2992,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -3002,12 +3002,12 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -3037,12 +3037,12 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -3052,7 +3052,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3077,7 +3077,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -3092,37 +3092,37 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -3147,22 +3147,22 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3172,12 +3172,12 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3187,12 +3187,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -3202,32 +3202,32 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3247,7 +3247,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -3257,22 +3257,22 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3282,12 +3282,12 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3302,7 +3302,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -3312,37 +3312,37 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3352,12 +3352,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -3367,12 +3367,12 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>partjoinmajority majority joinmajority</t>
+          <t>joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -3382,22 +3382,22 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3407,12 +3407,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -3422,17 +3422,17 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3442,17 +3442,17 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3467,7 +3467,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3477,37 +3477,37 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3532,7 +3532,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3547,7 +3547,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3562,7 +3562,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3572,12 +3572,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3587,7 +3587,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3597,27 +3597,27 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence dissent concurrencedissent joinmajority</t>
+          <t>concurrence concurrencedissent dissent joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent</t>
+          <t>concurrence concurrencedissent dissent</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3627,12 +3627,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3642,32 +3642,32 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -3682,12 +3682,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3697,32 +3697,32 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -3737,12 +3737,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -3752,37 +3752,37 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3792,12 +3792,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent</t>
+          <t>concurrence concurrencedissent dissent</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -3807,7 +3807,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3817,22 +3817,22 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -3847,12 +3847,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3862,7 +3862,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3872,27 +3872,27 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3902,7 +3902,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3922,7 +3922,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -3932,7 +3932,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -3947,7 +3947,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3957,12 +3957,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -3972,12 +3972,12 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -3987,22 +3987,22 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -4012,12 +4012,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -4027,7 +4027,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -4042,7 +4042,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -4052,7 +4052,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -4067,12 +4067,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -4082,7 +4082,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -4097,7 +4097,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -4122,7 +4122,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -4152,7 +4152,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -4167,7 +4167,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -4177,12 +4177,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -4197,32 +4197,32 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent</t>
+          <t>concurrence concurrencedissent dissent</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -4232,7 +4232,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -4247,12 +4247,12 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -4267,7 +4267,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -4277,7 +4277,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -4287,12 +4287,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -4322,17 +4322,17 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -4342,7 +4342,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -4357,12 +4357,12 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -4372,12 +4372,12 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -4387,7 +4387,7 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -4397,7 +4397,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -4412,12 +4412,12 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -4427,22 +4427,22 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -4452,12 +4452,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -4467,27 +4467,27 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -4507,7 +4507,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -4522,12 +4522,12 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -4577,12 +4577,12 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -4592,12 +4592,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4607,7 +4607,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -4622,7 +4622,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -4642,7 +4642,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4652,12 +4652,12 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -4672,7 +4672,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4687,12 +4687,12 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -4717,7 +4717,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -4727,7 +4727,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4742,17 +4742,17 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4767,12 +4767,12 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -4782,12 +4782,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>dissent partjoindissent joindissent</t>
+          <t>dissent joindissent partjoindissent</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -4827,7 +4827,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
     </row>
@@ -4837,7 +4837,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4852,12 +4852,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -4867,7 +4867,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -4907,12 +4907,12 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -4922,12 +4922,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>concurrence dissent partjoindissent joindissent</t>
+          <t>concurrence dissent joindissent partjoindissent</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4937,7 +4937,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -4947,12 +4947,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence partjoinconcurrence dissent concurrencedissent joinconcurrencedissent joinmajority joinconcurrence partjoinconcurrencedissent</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent joinmajority majority partjoinconcurrence partjoinconcurrencedissent partjoinmajority</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence dissent concurrencedissent joinmajority</t>
+          <t>concurrence concurrencedissent dissent joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -4962,7 +4962,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent</t>
+          <t>concurrence concurrencedissent dissent</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4972,27 +4972,27 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence dissent concurrencedissent joinmajority</t>
+          <t>concurrence concurrencedissent dissent joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence dissent concurrencedissent joinconcurrencedissent joinmajority joinconcurrence</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence partjoinconcurrence dissent concurrencedissent joinconcurrencedissent joinmajority joinconcurrence partjoinconcurrencedissent</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent joinmajority majority partjoinconcurrence partjoinconcurrencedissent partjoinmajority</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence partjoinconcurrence dissent concurrencedissent joinconcurrencedissent joinmajority joinconcurrence partjoinconcurrencedissent</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent joinmajority majority partjoinconcurrence partjoinconcurrencedissent partjoinmajority</t>
         </is>
       </c>
     </row>
@@ -5002,7 +5002,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -5022,12 +5022,12 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -5072,37 +5072,37 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>dissent partjoindissent joindissent</t>
+          <t>dissent joindissent partjoindissent</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>majority concurrence partjoinconcurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority partjoinconcurrence</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>dissent partjoindissent joindissent</t>
+          <t>dissent joindissent partjoindissent</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>majority concurrence partjoinconcurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority partjoinconcurrence</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>majority concurrence partjoinconcurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority partjoinconcurrence</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>dissent partjoindissent joindissent</t>
+          <t>dissent joindissent partjoindissent</t>
         </is>
       </c>
     </row>
